--- a/src/excel/AntigenSupportingData- Rabies-508.xlsx
+++ b/src/excel/AntigenSupportingData- Rabies-508.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F57E832-A2BB-4201-8833-69D10AADAF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A28B524-C53D-4A52-A4FA-CD370772C839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antigen Series Overview" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="257">
   <si>
     <t>Resources</t>
   </si>
@@ -616,9 +616,6 @@
     <t>Not Preferred</t>
   </si>
   <si>
-    <t>0 d</t>
-  </si>
-  <si>
     <t>Not Allowed</t>
   </si>
   <si>
@@ -665,9 +662,6 @@
   </si>
   <si>
     <t>Vaccine Count By Date</t>
-  </si>
-  <si>
-    <t>Target dose can be skipped if 1 or more previous doses have been adminisetered on or after May 6, 2022</t>
   </si>
   <si>
     <t>The 6 month booster should only be given after a rabies antibody titer. The booster should be administered if the titer falls below 0.5 IU/mL.</t>
@@ -699,9 +693,6 @@
 2) preemptively receive a one-time booster on or after day 21 to year 3 after completion of the 2-dose primary series.</t>
   </si>
   <si>
-    <t>For persons who risk for rabies exposure is greater than 3 years, but who have not had a titer or booster within three years can be realinged with ACIP recommendations through a one-time titer and booster if titer is below 0.5 IU/mL. Once boosted, titers should be checked no sooner than 1 week (preferable 2-4 weeks) later to ensure a titer of at least 0.5 UI/mL.</t>
-  </si>
-  <si>
     <t>PrEP considerations include whether the travelers 1) will be performing occupational or recreational activities that increase risk for exposure to potentially rabid animals (particularly dogs) and 2) might have difficulty getting prompt access to safe PEP (e.g., rural part of a country or far from closest PEP clinic)</t>
   </si>
   <si>
@@ -849,6 +840,24 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>Target dose can be skipped if 1 or more previous doses have been administered on or after May 6, 2022</t>
+  </si>
+  <si>
+    <t>For persons who risk for rabies exposure is greater than 3 years, but who have not had a titer or booster within three years can be realigned with ACIP recommendations through a one-time titer and booster if titer is below 0.5 IU/mL. Once boosted, titers should be checked no sooner than 1 week (preferable 2-4 weeks) later to ensure a titer of at least 0.5 UI/mL.</t>
+  </si>
+  <si>
+    <t>≥0 days</t>
+  </si>
+  <si>
+    <t>All Risk series -&gt; Dose 3 -&gt; Conditional Skip -&gt; Evaluation Skip -&gt; Dose Count</t>
+  </si>
+  <si>
+    <t>If the patient received any doses on/after May 6, 2022 (i.e., 1 or more, greater than 0), then this dose is not necessary. Previously the description was correct and this field was incorrect. Adjusting the Dose Count aligns with the description and arrives at the proper evaluation/forecast.</t>
+  </si>
+  <si>
+    <t>Publication Date: 08/07/2025</t>
   </si>
 </sst>
 </file>
@@ -858,11 +867,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1718,521 +1734,526 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="16" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="16" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="32" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="23" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="18" borderId="23" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="16" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="16" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="23" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="21" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="20" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="23" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="20" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="23" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="33" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="21" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="21" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="20" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="16" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="15" borderId="23" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="16" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="16" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="32" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="23" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="18" borderId="23" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="16" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="16" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="23" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="24" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="21" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="20" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="20" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="33" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="21" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="21" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="20" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="15" borderId="23" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2241,8 +2262,10 @@
     <cellStyle name="Normal 2 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 2 2 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 2 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2 2 4 2" xfId="18" xr:uid="{46CF9502-86BD-4E4D-8AFA-D6F01F306B21}"/>
     <cellStyle name="Normal 2 2_2-dose" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 3 2" xfId="19" xr:uid="{0331EC7D-41EE-45E3-9FC6-BA48DD0C3893}"/>
     <cellStyle name="Normal_Antigen Series Overview" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal_Risk 2-dose" xfId="17" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Normal_Risk 3-dose continuous" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -2780,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C18" s="155"/>
       <c r="D18" s="155"/>
@@ -2795,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C19" s="155"/>
       <c r="D19" s="155"/>
@@ -2810,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C20" s="155"/>
       <c r="D20" s="155"/>
@@ -2825,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C21" s="155"/>
       <c r="D21" s="155"/>
@@ -2840,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C22" s="155"/>
       <c r="D22" s="155"/>
@@ -2907,8 +2930,8 @@
       <c r="C26" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="75" t="s">
-        <v>177</v>
+      <c r="D26" s="153" t="s">
+        <v>253</v>
       </c>
       <c r="E26" s="75" t="s">
         <v>89</v>
@@ -2932,8 +2955,8 @@
       <c r="C27" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="75" t="s">
-        <v>177</v>
+      <c r="D27" s="153" t="s">
+        <v>253</v>
       </c>
       <c r="E27" s="75" t="s">
         <v>88</v>
@@ -2945,7 +2968,7 @@
       <c r="H27" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="63"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
@@ -2958,7 +2981,7 @@
         <v>176</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E28" s="75" t="s">
         <v>89</v>
@@ -2981,7 +3004,7 @@
         <v>176</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="75" t="s">
         <v>88</v>
@@ -3003,8 +3026,8 @@
       <c r="C30" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="75" t="s">
-        <v>177</v>
+      <c r="D30" s="153" t="s">
+        <v>253</v>
       </c>
       <c r="E30" s="76"/>
       <c r="F30" s="64" t="s">
@@ -3023,11 +3046,11 @@
       <c r="B31" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="75" t="s">
-        <v>177</v>
+      <c r="C31" s="153" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" s="153" t="s">
+        <v>253</v>
       </c>
       <c r="E31" s="75" t="s">
         <v>89</v>
@@ -3050,11 +3073,11 @@
       <c r="B32" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>177</v>
+      <c r="C32" s="153" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="153" t="s">
+        <v>253</v>
       </c>
       <c r="E32" s="153" t="s">
         <v>149</v>
@@ -3082,10 +3105,10 @@
     </row>
     <row r="34" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -3107,10 +3130,10 @@
     </row>
     <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="65" t="s">
         <v>209</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>212</v>
       </c>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -3122,10 +3145,10 @@
     </row>
     <row r="38" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B38" s="65" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -3145,7 +3168,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3162,10 +3185,10 @@
         <v>47</v>
       </c>
       <c r="B1" s="159">
-        <v>4.59</v>
+        <v>4.63</v>
       </c>
       <c r="C1" s="159" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3188,349 +3211,353 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="154" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="54">
         <v>1</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>10</v>
+        <v>254</v>
+      </c>
+      <c r="D3" s="56">
+        <v>1</v>
+      </c>
+      <c r="E3" s="56">
+        <v>0</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="159">
+        <v>4.59</v>
+      </c>
+      <c r="C5" s="159" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B6" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="157" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="54">
+        <v>1</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="54">
         <v>2</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C8" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="146" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="146" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4" s="146" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="F8" s="57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="159">
+      <c r="B10" s="159">
         <v>4.3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B11" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C11" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D11" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E11" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F11" s="50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="157" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="163">
-        <v>1</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="157" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="163">
-        <v>2</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="84" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="157" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="163">
-        <v>3</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="84" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="157" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="163">
-        <v>4</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="157" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="163">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="157" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="163">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="E13" s="84" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="154" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="157" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="163">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D14" s="84" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="157" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="163">
+        <v>4</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="157" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="163">
+        <v>5</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="157" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="163">
+        <v>6</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="163">
+        <v>7</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="F18" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="57" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B20" s="68">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B21" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C21" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D21" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E21" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F21" s="50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="157" t="s">
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B22" s="54">
         <v>1</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C22" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D22" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E22" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F22" s="57" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B23" s="54">
         <v>2</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C23" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D23" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E23" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F23" s="57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="154" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="54">
-        <v>3</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="68">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="154" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>99</v>
+        <v>178</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>94</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3538,7 +3565,7 @@
         <v>47</v>
       </c>
       <c r="B26" s="68">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3561,91 +3588,139 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="157" t="s">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="154" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="54">
         <v>1</v>
       </c>
       <c r="C28" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="68">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="157" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="54">
+        <v>1</v>
+      </c>
+      <c r="C32" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="151" t="s">
+      <c r="D32" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="151" t="s">
+      <c r="E32" s="151" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F32" s="57" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="154" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="54">
-        <v>2</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="151" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="154" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="54">
+        <v>2</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="151" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="54">
         <v>1</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C37" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D37" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E37" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F37" s="57" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3694,7 +3769,7 @@
         <v>146</v>
       </c>
       <c r="D2" s="148" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E2" s="149" t="s">
         <v>10</v>
@@ -3711,7 +3786,7 @@
         <v>168</v>
       </c>
       <c r="D3" s="151" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E3" s="149" t="s">
         <v>10</v>
@@ -3761,13 +3836,13 @@
         <v>63</v>
       </c>
       <c r="B4" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="D4" s="73" t="s">
         <v>182</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3928,7 +4003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3936,11 +4011,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="170" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="167" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="38"/>
@@ -3983,7 +4058,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="131"/>
       <c r="I5" s="109"/>
@@ -4139,7 +4214,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="79" t="s">
         <v>94</v>
@@ -4156,10 +4231,10 @@
         <v>137</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="79" t="s">
         <v>94</v>
@@ -4176,10 +4251,10 @@
         <v>137</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="79" t="s">
         <v>94</v>
@@ -5801,7 +5876,7 @@
         <v>112</v>
       </c>
       <c r="B85" s="100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C85" s="100" t="s">
         <v>10</v>
@@ -5810,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="100" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="F85" s="161">
         <v>44687</v>
@@ -5825,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="100" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K85" s="162">
         <v>44687</v>
@@ -5843,16 +5918,16 @@
         <v>10</v>
       </c>
       <c r="P85" s="100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="R85" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="R85" s="100" t="s">
-        <v>188</v>
-      </c>
       <c r="S85" s="100" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="T85" s="100" t="s">
         <v>10</v>
@@ -5863,7 +5938,7 @@
         <v>112</v>
       </c>
       <c r="B86" s="100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C86" s="100" t="s">
         <v>10</v>
@@ -5872,7 +5947,7 @@
         <v>2</v>
       </c>
       <c r="E86" s="100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F86" s="161">
         <v>44687</v>
@@ -5887,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="100" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K86" s="162" t="s">
         <v>10</v>
@@ -5908,13 +5983,13 @@
         <v>0</v>
       </c>
       <c r="Q86" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="R86" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="R86" s="100" t="s">
-        <v>188</v>
-      </c>
       <c r="S86" s="100" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="T86" s="100" t="s">
         <v>10</v>
@@ -6569,7 +6644,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="167" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="38"/>
@@ -6612,7 +6687,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" s="131"/>
       <c r="I5" s="109"/>
@@ -6764,10 +6839,10 @@
         <v>137</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D15" s="79" t="s">
         <v>94</v>
@@ -6784,10 +6859,10 @@
         <v>137</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D16" s="79" t="s">
         <v>94</v>
@@ -6804,10 +6879,10 @@
         <v>137</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D17" s="79" t="s">
         <v>94</v>
@@ -6824,10 +6899,10 @@
         <v>137</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D18" s="79" t="s">
         <v>94</v>
@@ -6836,7 +6911,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
@@ -8449,7 +8524,7 @@
         <v>112</v>
       </c>
       <c r="B86" s="100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C86" s="100" t="s">
         <v>10</v>
@@ -8458,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="100" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="F86" s="161">
         <v>44687</v>
@@ -8473,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="100" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K86" s="162">
         <v>44687</v>
@@ -8491,16 +8566,16 @@
         <v>10</v>
       </c>
       <c r="P86" s="100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="R86" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="R86" s="100" t="s">
-        <v>188</v>
-      </c>
       <c r="S86" s="100" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="T86" s="100" t="s">
         <v>10</v>
@@ -8511,7 +8586,7 @@
         <v>112</v>
       </c>
       <c r="B87" s="100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C87" s="100" t="s">
         <v>10</v>
@@ -8520,7 +8595,7 @@
         <v>2</v>
       </c>
       <c r="E87" s="100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F87" s="161">
         <v>44687</v>
@@ -8535,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="100" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K87" s="162" t="s">
         <v>10</v>
@@ -8556,13 +8631,13 @@
         <v>0</v>
       </c>
       <c r="Q87" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="R87" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="R87" s="100" t="s">
-        <v>188</v>
-      </c>
       <c r="S87" s="100" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="T87" s="100" t="s">
         <v>10</v>
@@ -9218,7 +9293,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="168" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C1" s="169"/>
       <c r="D1" s="163"/>
@@ -9261,7 +9336,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="131"/>
       <c r="I5" s="109"/>
@@ -9271,7 +9346,7 @@
         <v>79</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="C6" s="131"/>
       <c r="I6" s="109"/>
@@ -9281,7 +9356,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C7" s="131"/>
       <c r="I7" s="109"/>
@@ -9395,7 +9470,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G15" s="116">
         <v>1</v>
@@ -9445,7 +9520,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="218.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -9465,7 +9540,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
@@ -11078,7 +11153,7 @@
         <v>112</v>
       </c>
       <c r="B86" s="100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C86" s="100" t="s">
         <v>10</v>
@@ -11087,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="100" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="F86" s="161">
         <v>44687</v>
@@ -11102,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="100" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K86" s="162">
         <v>44687</v>
@@ -11120,16 +11195,16 @@
         <v>10</v>
       </c>
       <c r="P86" s="100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="R86" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="R86" s="100" t="s">
-        <v>188</v>
-      </c>
       <c r="S86" s="100" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="T86" s="100" t="s">
         <v>10</v>
@@ -11140,7 +11215,7 @@
         <v>112</v>
       </c>
       <c r="B87" s="100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C87" s="100" t="s">
         <v>10</v>
@@ -11149,7 +11224,7 @@
         <v>2</v>
       </c>
       <c r="E87" s="100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F87" s="161">
         <v>44687</v>
@@ -11164,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="100" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K87" s="162" t="s">
         <v>10</v>
@@ -11185,13 +11260,13 @@
         <v>0</v>
       </c>
       <c r="Q87" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="R87" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="R87" s="100" t="s">
-        <v>188</v>
-      </c>
       <c r="S87" s="100" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="T87" s="100" t="s">
         <v>10</v>
@@ -11388,7 +11463,7 @@
         <v>108</v>
       </c>
       <c r="I97" s="122" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J97" s="105" t="s">
         <v>10</v>
